--- a/src/Java8 Streams.xlsx
+++ b/src/Java8 Streams.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukesh.upreti\Google Drive\Java8\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77156F2-31D9-471B-AB2E-556C2A7380E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961CDA93-619D-4E67-9AD2-881B769274EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A65CF144-7E4B-43AF-89D4-E49E561A2AA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A65CF144-7E4B-43AF-89D4-E49E561A2AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Interface" sheetId="1" r:id="rId1"/>
     <sheet name="Stream methods" sheetId="2" r:id="rId2"/>
     <sheet name="Collectors" sheetId="4" r:id="rId3"/>
-    <sheet name="knowleageBase" sheetId="3" r:id="rId4"/>
+    <sheet name="Problems &amp; Solutions" sheetId="5" r:id="rId4"/>
+    <sheet name="knowleageBase" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
   <si>
     <t>functional interfaces</t>
   </si>
@@ -217,9 +218,6 @@
   </si>
   <si>
     <t>Returns a stream consisting of the elements of this stream, truncated to be no longer than maxSize in length.</t>
-  </si>
-  <si>
-    <t>&lt;R, A&gt; R collect(Collector&lt;? super T, A, R&gt; collector);</t>
   </si>
   <si>
     <t>collect</t>
@@ -312,10 +310,6 @@
     <t xml:space="preserve">reduce </t>
   </si>
   <si>
-    <t xml:space="preserve"> T reduce(T identity, BinaryOperator&lt;T&gt; accumulator);  
-Optional&lt;T&gt; reduce(BinaryOperator&lt;T&gt; accumulator)</t>
-  </si>
-  <si>
     <t>Where, identity is initial value 
 of type T and accumulator is a 
 function for combining two values.</t>
@@ -327,9 +321,6 @@
     <t>skip</t>
   </si>
   <si>
-    <t>Stream&lt;T&gt; skip(long n)</t>
-  </si>
-  <si>
     <t>Returns a stream consisting of the remaining elements of this stream after discarding the first n elements of the stream. If this stream contains fewer than n elements then an empty stream will be returned.</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
   </si>
   <si>
     <t>Different between funtion and consumer functional interface is funtion return value while consumer not return any value. So in consumer we can use any method which not return any value.</t>
-  </si>
-  <si>
-    <t>Note forEach is fuction of collection as well Streams</t>
   </si>
   <si>
     <t>of</t>
@@ -357,6 +345,113 @@
 .filter(t -&gt; t.getValue() &gt; 1000)
 .map(Transaction::getCity)
 .collect(toSet());</t>
+  </si>
+  <si>
+    <t>The argument passed to collect is an object of type java .util.stream.Collector. Collectors having static method to accumalte elements it have static method like toList() . toSet() and so on</t>
+  </si>
+  <si>
+    <t>toSet</t>
+  </si>
+  <si>
+    <t>toList</t>
+  </si>
+  <si>
+    <t>toCollection</t>
+  </si>
+  <si>
+    <t>counting()</t>
+  </si>
+  <si>
+    <t>ToIntFunction</t>
+  </si>
+  <si>
+    <t>Represents a function that produces an int-valued result. This is the int-producing primitive specialization for Function.</t>
+  </si>
+  <si>
+    <t>public interface ToIntFunction&lt;T&gt; {
+    /**
+     * Applies this function to the given argument.
+     *
+     * @param value the function argument
+     * @return the function result
+     */
+    int applyAsInt(T value);
+}</t>
+  </si>
+  <si>
+    <t>SummingInt</t>
+  </si>
+  <si>
+    <t>SummingLong</t>
+  </si>
+  <si>
+    <t>averagingInt</t>
+  </si>
+  <si>
+    <t>maxBy()</t>
+  </si>
+  <si>
+    <t>minBy()</t>
+  </si>
+  <si>
+    <t>reducing()</t>
+  </si>
+  <si>
+    <t>groupingBy(</t>
+  </si>
+  <si>
+    <t>mapping(),</t>
+  </si>
+  <si>
+    <t>joining()</t>
+  </si>
+  <si>
+    <t>andThen()</t>
+  </si>
+  <si>
+    <t>collecting</t>
+  </si>
+  <si>
+    <t>Collectors</t>
+  </si>
+  <si>
+    <t>public static &lt;T, K, A, D&gt;
+    Collector&lt;T, ?, Map&lt;K, D&gt;&gt; groupingBy(Function&lt;? super T, ? extends K&gt; classifier,
+                                          Collector&lt;? super T, A, D&gt; downstream)</t>
+  </si>
+  <si>
+    <r>
+      <t>/**
+     * Returns a function that always returns its input argument.
+     *
+     * @param &lt;T&gt; the type of the input and output objects to the function
+     * @</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return a function that always returns its input argument</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     */
+    static &lt;T&gt; Function&lt;T, T&gt; identity() {
+        return t -&gt; t;
+    }</t>
+    </r>
   </si>
   <si>
     <r>
@@ -383,89 +478,7 @@
 transactions.stream()
 .filter(t -&gt; t.getValue() &gt; 1000)
 .map(Transaction::getCity)
-.collect(toCollection(HashSet::new));</t>
-    </r>
-  </si>
-  <si>
-    <t>The argument passed to collect is an object of type java .util.stream.Collector. Collectors having static method to accumalte elements it have static method like toList() . toSet() and so on</t>
-  </si>
-  <si>
-    <t>toSet</t>
-  </si>
-  <si>
-    <t>toList</t>
-  </si>
-  <si>
-    <t>toCollection</t>
-  </si>
-  <si>
-    <t>counting()</t>
-  </si>
-  <si>
-    <t>ToIntFunction</t>
-  </si>
-  <si>
-    <t>Represents a function that produces an int-valued result. This is the int-producing primitive specialization for Function.</t>
-  </si>
-  <si>
-    <t>public interface ToIntFunction&lt;T&gt; {
-    /**
-     * Applies this function to the given argument.
-     *
-     * @param value the function argument
-     * @return the function result
-     */
-    int applyAsInt(T value);
-}</t>
-  </si>
-  <si>
-    <t>SummingInt</t>
-  </si>
-  <si>
-    <t>SummingLong</t>
-  </si>
-  <si>
-    <t>averagingInt</t>
-  </si>
-  <si>
-    <t>maxBy()</t>
-  </si>
-  <si>
-    <t>minBy()</t>
-  </si>
-  <si>
-    <t>reducing()</t>
-  </si>
-  <si>
-    <t>groupingBy(</t>
-  </si>
-  <si>
-    <t>mapping(),</t>
-  </si>
-  <si>
-    <t>joining()</t>
-  </si>
-  <si>
-    <t>andThen()</t>
-  </si>
-  <si>
-    <t>collecting</t>
-  </si>
-  <si>
-    <t>Collectors</t>
-  </si>
-  <si>
-    <t>public static &lt;T, K, A, D&gt;
-    Collector&lt;T, ?, Map&lt;K, D&gt;&gt; groupingBy(Function&lt;? super T, ? extends K&gt; classifier,
-                                          Collector&lt;? super T, A, D&gt; downstream)</t>
-  </si>
-  <si>
-    <r>
-      <t>/**
-     * Returns a function that always returns its input argument.
-     *
-     * @param &lt;T&gt; the type of the input and output objects to the function
-     * @</t>
+.collect(</t>
     </r>
     <r>
       <rPr>
@@ -476,7 +489,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>return a function that always returns its input argument</t>
+      <t>toCollection</t>
     </r>
     <r>
       <rPr>
@@ -486,22 +499,512 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>(HashSet::new));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>removeif (predicate )</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  is present in each of collection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(set , list and so on)</t>
+    </r>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Optional&lt;T&gt; max(Comparator&lt;? super T&gt; comparator)</t>
+  </si>
+  <si>
+    <t>match( boolean)</t>
+  </si>
+  <si>
+    <t>find (optional element)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note forEach is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fuction of collection as well Streams</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>public interface Supplier&lt;T&gt; {
+    /**
+     * Gets a result.
+     *
+     * @return a result
      */
-    static &lt;T&gt; Function&lt;T, T&gt; identity() {
-        return t -&gt; t;
+    T get();
+}</t>
+  </si>
+  <si>
+    <t>Represents a supplier of results.
+There is no requirement that a new or distinct result be returned each time the supplier is invoked.
+This is a functional interface whose functional method is get().</t>
+  </si>
+  <si>
+    <t>Why the Default Method?</t>
+  </si>
+  <si>
+    <r>
+      <t>Default methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> can be provided to an interface without affecting implementing classes as it includes an implementation. If each added method in an interface is defined with implementation, then no implementing class is affected. An implementing class can override the default implementation provided by the interface.</t>
+    </r>
+  </si>
+  <si>
+    <t>For Java 8, the JDK collections have been extended and the forEach method is added to the entire collection (which work in conjunction with lambdas). With the conventional way, the code looks like below:</t>
+  </si>
+  <si>
+    <t>public interface Iterable&lt;T&gt; {
+    public void forEach(Consumer&lt;? super T&gt; consumer);
+public default void forEach(Consumer&lt;? super T&gt; consumer) {
+    for (T t : this) {
+        consumer.accept(t);
+    }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reengineering an existing JDK framework is always very complex. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Modifying one interface in a JDK framework breaks all classes that extend the interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>, which means that adding any new method could break millions of lines of code. Therefore, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>default methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> have introduced as a mechanism to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>extend interfaces in a backward-compatible way.</t>
+    </r>
+  </si>
+  <si>
+    <t>When to Use Default Method Over Abstract Classes</t>
+  </si>
+  <si>
+    <t>After introducing Default Method, it seems that interfaces and abstract classes are the same. However, they are still a different concept in Java 8.
+The abstract class can define constructors. They are more structured and can have a state associated with them. While in contrast, default method can be implemented only in the terms of invoking other interface methods, with no reference to a particular implementation's state. Hence, both are used for different purposes and choosing between two really depends on the scenario context.</t>
+  </si>
+  <si>
+    <t>Default Method and Multiple Inheritance Ambiguity Problems</t>
+  </si>
+  <si>
+    <t>Since Java classes can implement multiple interfaces and each interface can define a default method with the same method signature, the inherited methods can conflict with each other.</t>
+  </si>
+  <si>
+    <t>public interface InterfaceA { 
+    default void defaultMethod(){ 
+        System.out.println("Interface A default method"); 
+    } 
+}
+public interface InterfaceB {
+    default void defaultMethod(){
+        System.out.println("Interface B default method");
+    }
+}
+public class Impl implements InterfaceA, InterfaceB  {
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+public class Impl implements InterfaceA, InterfaceB {
+    public void defaultMethod(){
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Impl implements InterfaceA, InterfaceB {
+    public void defaultMethod(){
+        // existing code here..
+        InterfaceA.super.defaultMethod();
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functioanl interface in java </t>
+  </si>
+  <si>
+    <t>public interface Runnable {
+    /**
+     * When an object implementing interface &lt;code&gt;Runnable&lt;/code&gt; is used
+     * to create a thread, starting the thread causes the object's
+     * &lt;code&gt;run&lt;/code&gt; method to be called in that separately executing
+     * thread.
+     * &lt;p&gt;
+     * The general contract of the method &lt;code&gt;run&lt;/code&gt; is that it may
+     * take any action whatsoever.
+     *
+     * @see     java.lang.Thread#run()
+     */
+    public abstract void run();
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Lambda Expression </t>
+  </si>
+  <si>
+    <t>Lambda Expression:
+The lambda expression is an anonymous method (a method without a name) that is used to implement the abstract method of the functional interface.</t>
+  </si>
+  <si>
+    <t>1. One class/ interface can have one or more default methods</t>
+  </si>
+  <si>
+    <t>2. In fuctional interface , default method provide the defualt implementation of function interface abstract method. If any of the Implementing class does not provide implmenation so that defualt method will be used .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Default method  </t>
+  </si>
+  <si>
+    <r>
+      <t>3. if you want to add some common behavior to all of child classes you can use</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Default or static method (&lt;--why static method)</t>
+    </r>
+  </si>
+  <si>
+    <t>BiConsumer</t>
+  </si>
+  <si>
+    <t>Represents an operation that accepts two input arguments and returns no result. This is the two-arity specialization of Consumer. Unlike most other functional interfaces, BiConsumer is expected to operate via side-effects.
+This is a functional interface whose functional method is accept(Object, Object).</t>
+  </si>
+  <si>
+    <t>public interface BiConsumer&lt;T, U&gt; {
+    /**
+     * Performs this operation on the given arguments.
+     *
+     * @param t the first input argument
+     * @param u the second input argument
+     */
+    void accept(T t, U u);
+    /**
+     * Returns a composed {@code BiConsumer} that performs, in sequence, this
+     * operation followed by the {@code after} operation. If performing either
+     * operation throws an exception, it is relayed to the caller of the
+     * composed operation.  If performing this operation throws an exception,
+     * the {@code after} operation will not be performed.
+     *
+     * @param after the operation to perform after this operation
+     * @return a composed {@code BiConsumer} that performs in sequence this
+     * operation followed by the {@code after} operation
+     * @throws NullPointerException if {@code after} is null
+     */
+    default BiConsumer&lt;T, U&gt; andThen(BiConsumer&lt;? super T, ? super U&gt; after) {
+        Objects.requireNonNull(after);
+        return (l, r) -&gt; {
+            accept(l, r);
+            after.accept(l, r);
+        };
+    }
+}</t>
+  </si>
+  <si>
+    <t>findingMaxTransaction</t>
+  </si>
+  <si>
+    <t>transactions.stream().max(new Comparator&lt;Transaction&gt;() {
+            @Override
+            public int compare(Transaction o1, Transaction o2) {
+                return o1.getValue()-o2.getValue();
+            }
+        }).ifPresent(System.out::println);
+        transactions.stream().max(Comparator.comparing(Transaction::getValue)).ifPresent(System.out::println);</t>
+  </si>
+  <si>
+    <t>ifPresentOfOptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  transactions.stream()
+                .filter(t -&gt; t.getCity() == "Bombay")
+                .findAny()
+                .ifPresent(System.out::println);
     }</t>
-    </r>
-  </si>
-  <si>
-    <t>removeif (predicate )  is present in each of collection (set , list and so on)</t>
+  </si>
+  <si>
+    <t>buildingStreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stream&lt;Integer&gt; numbersFromValues = Stream.of(1, 2, 3, 4);
+        int[] numbers = {1, 2, 3, 4};
+        IntStream numbersFromArray = Arrays.stream(numbers);
+       // infinite streams . you cna limit by limit method
+        Stream&lt;Integer&gt; numbers1 = Stream.iterate(0, n -&gt; n + 10);
+        // infinite loop
+       // numbers1.collect(Collectors.toList());
+        numbers1.limit(10).collect(Collectors.toList()).forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>CollectorsMethods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set&lt;String&gt; cities =
+                transactions.stream()
+                        .filter(t -&gt; t.getValue() &gt; 1000)
+                        .map(Transaction::getCity)
+                        .collect(toSet());
+        System.out.println("expesive city &gt;1000 --&gt;" +cities);
+        Set&lt;String&gt; cities1 =
+                transactions.stream()
+                        .filter(t -&gt; t.getValue() &gt; 1000)
+                        .map(Transaction::getCity)
+                        .collect(Collectors.toCollection(HashSet::new));
+        System.out.println("expesive city &gt;1000 with hashset --&gt;" +cities1);
+        Map&lt;String, List&lt;Transaction&gt;&gt; transactionsByCurrencies =
+        transactions.stream().collect(groupingBy(
+                Transaction::getCurrency));
+        System.out.println("transactionsByCurrencies " +transactionsByCurrencies);
+      Map&lt;Boolean,List&lt;Transaction&gt; &gt; expesiveAndCheep=transactions.stream().collect(Collectors.partitioningBy(x-&gt;x.getValue()&gt;1000));
+      System.out.println(" divide list of transaction by partitionby  "  +expesiveAndCheep);
+        // sum of trainsection value by each city
+        Map&lt;String, Integer&gt; cityToSum =
+                transactions.stream().collect(groupingBy(
+                        Transaction::getCity, summingInt(Transaction::getValue)));
+        System.out.println(" each city transaction sum " +cityToSum);
+        Map&lt;String, Optional&lt;Transaction&gt;&gt; cityToHighestTransaction =
+                transactions.stream().collect(groupingBy(
+                        Transaction::getCurrency, maxBy(Comparator.comparing(Transaction::getValue))));
+        System.out.println(cityToHighestTransaction);
+        System.out.println(" each city hightest trasaction " +cityToSum);
+       Map&lt;String, Map&lt;String, Double&gt;&gt; cityByCurrencyToAverage =
+        transactions.stream().collect(groupingBy(Transaction::getCity,
+                        groupingBy(Transaction::getCurrency,
+                                averagingInt(Transaction::getValue))));
+        System.out.println(cityByCurrencyToAverage);</t>
+  </si>
+  <si>
+    <t>limitFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                numbers.stream()
+                        .filter(n -&gt; {
+                           System.out.println("filtering " + n);
+                            return n % 2 == 0;
+                        })
+                        .map(n -&gt; {
+                           System.out.println("mapping " + n);
+                            return n * n;
+                        })
+                        .limit(2)
+                        .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>reduceMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3, 4, 5, 6, 7, 8);
+        int product = numbers.stream().reduce(1, (a, b) -&gt; a * b);
+        System.out.println(product);
+        int product2 = numbers.stream().reduce(1, Integer::max);
+        System.out.println(product2);
+        //max element
+        int max=numbers.stream().reduce(1,Integer::max);</t>
+  </si>
+  <si>
+    <t>maptoIntFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int statementSum =
+                transactions.stream()
+                        .mapToInt(Transaction::getValue)
+                        .sum(); //works!</t>
+  </si>
+  <si>
+    <t>letterCounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stream&lt;String&gt; words = Stream.of("Java", "Magazine", "is", "the", "best");
+        Map&lt;String, Long&gt; letterToCount = words.map(w -&gt; w.split(""))
+                .flatMap(Arrays::stream)
+                .collect(groupingBy(Function.identity(), Collectors.counting()))
+                ;
+        System.out.println(letterToCount);
+        System.out.println("_________________________");</t>
+  </si>
+  <si>
+    <t>uniqueWordInFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> try {
+            Files.lines(Paths.get("/Users/mukesh.upreti/Google Drive/Java8/src/streams/stuff.txt"))
+                    .map(line -&gt; line.split("\\s+"))// Stream&lt;String[]&gt;
+                    .distinct().flatMap(Arrays::stream) //Stream&lt;String[]&gt;
+                    .forEach(System.out::println);
+        } catch (IOException e) {
+            e.printStackTrace();
+        }</t>
+  </si>
+  <si>
+    <t>expensiveTransaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     transactions.stream()
+                        .filter(t -&gt; t.getValue() &gt; 1000)
+                        .map(Transaction::getId)
+                        .collect(Collectors.toList())
+                         .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>getExpensivecity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> transactions.stream()
+            .filter(t -&gt; t.getValue() &gt; 1000)
+            .map(Transaction::getCity)
+            .collect(Collectors.toSet())
+        .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>getExpensivecityV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   transactions.stream()
+                .filter(t -&gt; t.getValue() &gt; 1000)
+                .map(Transaction::getCity)
+                .collect(Collectors.toCollection(HashSet::new))
+                .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>howManyTransactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   System.out.println(transactions.stream().collect(Collectors.counting()));</t>
+  </si>
+  <si>
+    <t>totalValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  System.out.println(transactions.stream().collect(Collectors.summingInt(Transaction::getValue)));</t>
+  </si>
+  <si>
+    <t>averaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  System.out.println(transactions.stream().collect(Collectors.averagingInt(Transaction::getValue)));</t>
+  </si>
+  <si>
+    <t>reducing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System.out.println(transactions.stream().collect(Collectors.reducing(0, Transaction::getValue, Integer::sum)));</t>
+  </si>
+  <si>
+    <t>highestTransaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Optional&lt;Transaction&gt; highestTransaction = transactions.stream()
+                .collect(Collectors.maxBy(Comparator.comparing(Transaction::getValue)));
+        System.out.println(highestTransaction.get());
+        Optional&lt;Transaction&gt; minTransaction = transactions.stream()
+                .collect(Collectors.minBy(Comparator.comparing(Transaction::getValue)));
+        System.out.println(minTransaction.get());
+        System.out.println("_________________________");</t>
+  </si>
+  <si>
+    <t>Stream&lt;T&gt; skip(long n)  --&gt; discard first n element</t>
+  </si>
+  <si>
+    <t>Comparattransactions.stream()
+                .collect(Collectors.maxBy(Comparator.comparing(Transaction::getValue)))or.comparing(Transaction::getValue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T reduce(T identity, BinaryOperator&lt;T&gt; accumulator);  
+Optional&lt;T&gt; reduce(BinaryOperator&lt;T&gt; accumulator)  ==&gt; min() max() sum()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +1028,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222635"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF222635"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222635"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +1106,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -585,10 +1122,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,8 +1149,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3D964-5503-4369-9A4F-BA01ACE76EE4}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,13 +1552,35 @@
     </row>
     <row r="17" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1011,17 +1591,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD92A987-16E9-4C01-83BB-D8207968418A}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="83.6640625" customWidth="1"/>
-    <col min="3" max="3" width="56.21875" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.44140625" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1073,7 +1653,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -1089,6 +1669,9 @@
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1100,6 +1683,9 @@
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1111,10 +1697,13 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>69</v>
+      <c r="B16" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1127,8 +1716,11 @@
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -1193,54 +1785,63 @@
     </row>
     <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="D34" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1264,85 +1865,85 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1351,64 +1952,348 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4870BA-DF7B-4CF9-9D64-FB9B38A6FA88}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62803685-51D0-478A-AF58-F8DB65122438}">
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A37" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="159.21875" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" customWidth="1"/>
+    <col min="2" max="2" width="126.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4870BA-DF7B-4CF9-9D64-FB9B38A6FA88}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="130" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>77</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" tooltip="Lambda Expressions" display="http://docs.oracle.com/javase/tutorial/java/javaOO/lambdaexpressions.html" xr:uid="{D4F0D4B4-9959-4718-A631-F0C1AB18109F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/Java8 Streams.xlsx
+++ b/src/Java8 Streams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukesh.upreti\Google Drive\Java8\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961CDA93-619D-4E67-9AD2-881B769274EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A24F57E-37D3-464B-8389-4E41A48015D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A65CF144-7E4B-43AF-89D4-E49E561A2AA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A65CF144-7E4B-43AF-89D4-E49E561A2AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Funtional Interface" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="168">
   <si>
     <t>functional interfaces</t>
   </si>
@@ -825,7 +825,148 @@
     <t>CollectorsMethods</t>
   </si>
   <si>
-    <t xml:space="preserve"> Set&lt;String&gt; cities =
+    <t>limitFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                numbers.stream()
+                        .filter(n -&gt; {
+                           System.out.println("filtering " + n);
+                            return n % 2 == 0;
+                        })
+                        .map(n -&gt; {
+                           System.out.println("mapping " + n);
+                            return n * n;
+                        })
+                        .limit(2)
+                        .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>reduceMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3, 4, 5, 6, 7, 8);
+        int product = numbers.stream().reduce(1, (a, b) -&gt; a * b);
+        System.out.println(product);
+        int product2 = numbers.stream().reduce(1, Integer::max);
+        System.out.println(product2);
+        //max element
+        int max=numbers.stream().reduce(1,Integer::max);</t>
+  </si>
+  <si>
+    <t>maptoIntFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int statementSum =
+                transactions.stream()
+                        .mapToInt(Transaction::getValue)
+                        .sum(); //works!</t>
+  </si>
+  <si>
+    <t>letterCounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stream&lt;String&gt; words = Stream.of("Java", "Magazine", "is", "the", "best");
+        Map&lt;String, Long&gt; letterToCount = words.map(w -&gt; w.split(""))
+                .flatMap(Arrays::stream)
+                .collect(groupingBy(Function.identity(), Collectors.counting()))
+                ;
+        System.out.println(letterToCount);
+        System.out.println("_________________________");</t>
+  </si>
+  <si>
+    <t>uniqueWordInFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> try {
+            Files.lines(Paths.get("/Users/mukesh.upreti/Google Drive/Java8/src/streams/stuff.txt"))
+                    .map(line -&gt; line.split("\\s+"))// Stream&lt;String[]&gt;
+                    .distinct().flatMap(Arrays::stream) //Stream&lt;String[]&gt;
+                    .forEach(System.out::println);
+        } catch (IOException e) {
+            e.printStackTrace();
+        }</t>
+  </si>
+  <si>
+    <t>expensiveTransaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     transactions.stream()
+                        .filter(t -&gt; t.getValue() &gt; 1000)
+                        .map(Transaction::getId)
+                        .collect(Collectors.toList())
+                         .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>getExpensivecity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> transactions.stream()
+            .filter(t -&gt; t.getValue() &gt; 1000)
+            .map(Transaction::getCity)
+            .collect(Collectors.toSet())
+        .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>getExpensivecityV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   transactions.stream()
+                .filter(t -&gt; t.getValue() &gt; 1000)
+                .map(Transaction::getCity)
+                .collect(Collectors.toCollection(HashSet::new))
+                .forEach(System.out::println);</t>
+  </si>
+  <si>
+    <t>howManyTransactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   System.out.println(transactions.stream().collect(Collectors.counting()));</t>
+  </si>
+  <si>
+    <t>totalValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  System.out.println(transactions.stream().collect(Collectors.summingInt(Transaction::getValue)));</t>
+  </si>
+  <si>
+    <t>averaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  System.out.println(transactions.stream().collect(Collectors.averagingInt(Transaction::getValue)));</t>
+  </si>
+  <si>
+    <t>reducing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System.out.println(transactions.stream().collect(Collectors.reducing(0, Transaction::getValue, Integer::sum)));</t>
+  </si>
+  <si>
+    <t>highestTransaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Optional&lt;Transaction&gt; highestTransaction = transactions.stream()
+                .collect(Collectors.maxBy(Comparator.comparing(Transaction::getValue)));
+        System.out.println(highestTransaction.get());
+        Optional&lt;Transaction&gt; minTransaction = transactions.stream()
+                .collect(Collectors.minBy(Comparator.comparing(Transaction::getValue)));
+        System.out.println(minTransaction.get());
+        System.out.println("_________________________");</t>
+  </si>
+  <si>
+    <t>Stream&lt;T&gt; skip(long n)  --&gt; discard first n element</t>
+  </si>
+  <si>
+    <t>Comparattransactions.stream()
+                .collect(Collectors.maxBy(Comparator.comparing(Transaction::getValue)))or.comparing(Transaction::getValue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T reduce(T identity, BinaryOperator&lt;T&gt; accumulator);  
+Optional&lt;T&gt; reduce(BinaryOperator&lt;T&gt; accumulator)  ==&gt; min() max() sum()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Set&lt;String&gt; cities =
                 transactions.stream()
                         .filter(t -&gt; t.getValue() &gt; 1000)
                         .map(Transaction::getCity)
@@ -841,8 +982,30 @@
         transactions.stream().collect(groupingBy(
                 Transaction::getCurrency));
         System.out.println("transactionsByCurrencies " +transactionsByCurrencies);
-      Map&lt;Boolean,List&lt;Transaction&gt; &gt; expesiveAndCheep=transactions.stream().collect(Collectors.partitioningBy(x-&gt;x.getValue()&gt;1000));
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Map&lt;Boolean,List&lt;Transaction&gt; &gt; expesiveAndCheep=transactions.stream().collect(Collectors.partitioningBy(x-&gt;x.getValue()&gt;1000));
       System.out.println(" divide list of transaction by partitionby  "  +expesiveAndCheep);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
         // sum of trainsection value by each city
         Map&lt;String, Integer&gt; cityToSum =
                 transactions.stream().collect(groupingBy(
@@ -858,146 +1021,21 @@
                         groupingBy(Transaction::getCurrency,
                                 averagingInt(Transaction::getValue))));
         System.out.println(cityByCurrencyToAverage);</t>
-  </si>
-  <si>
-    <t>limitFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                numbers.stream()
-                        .filter(n -&gt; {
-                           System.out.println("filtering " + n);
-                            return n % 2 == 0;
-                        })
-                        .map(n -&gt; {
-                           System.out.println("mapping " + n);
-                            return n * n;
-                        })
-                        .limit(2)
-                        .forEach(System.out::println);</t>
-  </si>
-  <si>
-    <t>reduceMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> List&lt;Integer&gt; numbers = Arrays.asList(1, 2, 3, 4, 5, 6, 7, 8);
-        int product = numbers.stream().reduce(1, (a, b) -&gt; a * b);
-        System.out.println(product);
-        int product2 = numbers.stream().reduce(1, Integer::max);
-        System.out.println(product2);
-        //max element
-        int max=numbers.stream().reduce(1,Integer::max);</t>
-  </si>
-  <si>
-    <t>maptoIntFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> int statementSum =
-                transactions.stream()
-                        .mapToInt(Transaction::getValue)
-                        .sum(); //works!</t>
-  </si>
-  <si>
-    <t>letterCounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stream&lt;String&gt; words = Stream.of("Java", "Magazine", "is", "the", "best");
-        Map&lt;String, Long&gt; letterToCount = words.map(w -&gt; w.split(""))
-                .flatMap(Arrays::stream)
-                .collect(groupingBy(Function.identity(), Collectors.counting()))
-                ;
-        System.out.println(letterToCount);
-        System.out.println("_________________________");</t>
-  </si>
-  <si>
-    <t>uniqueWordInFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> try {
-            Files.lines(Paths.get("/Users/mukesh.upreti/Google Drive/Java8/src/streams/stuff.txt"))
-                    .map(line -&gt; line.split("\\s+"))// Stream&lt;String[]&gt;
-                    .distinct().flatMap(Arrays::stream) //Stream&lt;String[]&gt;
-                    .forEach(System.out::println);
-        } catch (IOException e) {
-            e.printStackTrace();
-        }</t>
-  </si>
-  <si>
-    <t>expensiveTransaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     transactions.stream()
-                        .filter(t -&gt; t.getValue() &gt; 1000)
-                        .map(Transaction::getId)
-                        .collect(Collectors.toList())
-                         .forEach(System.out::println);</t>
-  </si>
-  <si>
-    <t>getExpensivecity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> transactions.stream()
-            .filter(t -&gt; t.getValue() &gt; 1000)
-            .map(Transaction::getCity)
-            .collect(Collectors.toSet())
-        .forEach(System.out::println);</t>
-  </si>
-  <si>
-    <t>getExpensivecityV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   transactions.stream()
-                .filter(t -&gt; t.getValue() &gt; 1000)
-                .map(Transaction::getCity)
-                .collect(Collectors.toCollection(HashSet::new))
-                .forEach(System.out::println);</t>
-  </si>
-  <si>
-    <t>howManyTransactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   System.out.println(transactions.stream().collect(Collectors.counting()));</t>
-  </si>
-  <si>
-    <t>totalValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  System.out.println(transactions.stream().collect(Collectors.summingInt(Transaction::getValue)));</t>
-  </si>
-  <si>
-    <t>averaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  System.out.println(transactions.stream().collect(Collectors.averagingInt(Transaction::getValue)));</t>
-  </si>
-  <si>
-    <t>reducing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System.out.println(transactions.stream().collect(Collectors.reducing(0, Transaction::getValue, Integer::sum)));</t>
-  </si>
-  <si>
-    <t>highestTransaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Optional&lt;Transaction&gt; highestTransaction = transactions.stream()
-                .collect(Collectors.maxBy(Comparator.comparing(Transaction::getValue)));
-        System.out.println(highestTransaction.get());
-        Optional&lt;Transaction&gt; minTransaction = transactions.stream()
-                .collect(Collectors.minBy(Comparator.comparing(Transaction::getValue)));
-        System.out.println(minTransaction.get());
-        System.out.println("_________________________");</t>
-  </si>
-  <si>
-    <t>Stream&lt;T&gt; skip(long n)  --&gt; discard first n element</t>
-  </si>
-  <si>
-    <t>Comparattransactions.stream()
-                .collect(Collectors.maxBy(Comparator.comparing(Transaction::getValue)))or.comparing(Transaction::getValue)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> T reduce(T identity, BinaryOperator&lt;T&gt; accumulator);  
-Optional&lt;T&gt; reduce(BinaryOperator&lt;T&gt; accumulator)  ==&gt; min() max() sum()</t>
+    </r>
+  </si>
+  <si>
+    <t>groupingBy(
+                        Transaction::getCity, summingInt(Transaction::getValue))</t>
+  </si>
+  <si>
+    <t>partitionedBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Map&lt;Boolean,List&lt;Transaction&gt; &gt; expesiveAndCheep=transactions.stream().collect(Collectors.partitioningBy(x-&gt;x.getValue()&gt;1000));</t>
+  </si>
+  <si>
+    <t>groupingBy(
+                        Transaction::getCurrency, maxBy(Comparator.comparing(Transaction::getValue)))</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD92A987-16E9-4C01-83BB-D8207968418A}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1802,7 +1840,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>62</v>
@@ -1816,7 +1854,7 @@
         <v>64</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>65</v>
@@ -1841,7 +1879,7 @@
         <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1851,100 +1889,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8547BBBA-2D3F-429D-AB58-21EEF73FF956}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62803685-51D0-478A-AF58-F8DB65122438}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,115 +2069,116 @@
         <v>133</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
